--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11430" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19770" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -34,12 +34,6 @@
     <t>valid</t>
   </si>
   <si>
-    <t>justin12@gmail.com</t>
-  </si>
-  <si>
-    <t>chellam</t>
-  </si>
-  <si>
     <t>yamaha@gmail.com</t>
   </si>
   <si>
@@ -50,12 +44,6 @@
   </si>
   <si>
     <t>duke@gmail.com</t>
-  </si>
-  <si>
-    <t>duke</t>
-  </si>
-  <si>
-    <t>pulsar@gmail.com</t>
   </si>
   <si>
     <t>pulsar</t>
@@ -438,7 +426,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,55 +460,50 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12345</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
